--- a/biology/Botanique/Propinèbe/Propinèbe.xlsx
+++ b/biology/Botanique/Propinèbe/Propinèbe.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Propin%C3%A8be</t>
+          <t>Propinèbe</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le propinèbe est une substance active de produit phytosanitaire (ou produit phytopharmaceutique, ou pesticide), qui présente un effet fongicide, d'origine allemande (Bayer, 1962), et appartenant au groupe des dithiocarbamates.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Propin%C3%A8be</t>
+          <t>Propinèbe</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,12 +525,14 @@
           <t>Réglementation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Sur le plan de la réglementation des produits phytopharmaceutiques :
 pour l’Union européenne : cette substance active est inscrite à l’annexe I de la directive 91/414/CEE par la directive 2003/39/CE.
 pour la France : cette substance active est autorisée dans la composition de préparations bénéficiant d’une autorisation de mise sur le marché.
-La teneur maximale autorisée en résidus de dithiocarbamate provenant du propinèbe dans les céréales est de 2 mg·kg-1 pour l'orge et 1 mg·kg-1 pour le blé[1].
+La teneur maximale autorisée en résidus de dithiocarbamate provenant du propinèbe dans les céréales est de 2 mg·kg-1 pour l'orge et 1 mg·kg-1 pour le blé.
 </t>
         </is>
       </c>
